--- a/results/pvalue_SIDER_rare_pathway_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_pathway_AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.237</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.479</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.361</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.221</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.391</t>
+          <t>16.509</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>14.295</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>12.927</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>12.125</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.197</t>
+          <t>0.104</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.335</t>
+          <t>9.912</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.264</t>
+          <t>7.672</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.295</t>
+          <t>7.808</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.255</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.545</t>
+          <t>2.101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
